--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07C4313-6F5C-4480-9EFD-F0D302A8BAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6349EDE8-466D-4F7B-A65C-D36D7EA48DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>43120560</t>
   </si>
@@ -164,99 +164,6 @@
     <t>Collecteur 4/4 x5 sorties bleu</t>
   </si>
   <si>
-    <t>43120663</t>
-  </si>
-  <si>
-    <t>Bouton bleu pour collecteur</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(2 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120666</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(4 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120667</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(5 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120668</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(6 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120670</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(7 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120671</t>
-  </si>
-  <si>
-    <t>Collecteur 3/4(8 sorties 1/2)</t>
-  </si>
-  <si>
-    <t>43120677</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4M x(7x1/2m)</t>
-  </si>
-  <si>
-    <t>43120692</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (2 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120693</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (3 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120694</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (4 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120695</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (5 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120696</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (6 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120697</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (7 sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120698</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 (8sorties 1/2f)</t>
-  </si>
-  <si>
-    <t>43120699</t>
-  </si>
-  <si>
-    <t>Collecteur 4/4 mf(2 sorties m)</t>
-  </si>
-  <si>
     <t>43120710</t>
   </si>
   <si>
@@ -308,15 +215,9 @@
     <t>denomination</t>
   </si>
   <si>
-    <t>3/4</t>
-  </si>
-  <si>
     <t>4/4</t>
   </si>
   <si>
-    <t>3/4-4/4</t>
-  </si>
-  <si>
     <t>collecteur/collecteur-2-bleu.png</t>
   </si>
   <si>
@@ -347,29 +248,31 @@
     <t>collecteur/collecteur-6-rouge.png</t>
   </si>
   <si>
-    <r>
-      <t>431</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0665</t>
-    </r>
+    <t>3/4-2</t>
+  </si>
+  <si>
+    <t>3/4-3</t>
+  </si>
+  <si>
+    <t>3/4-4</t>
+  </si>
+  <si>
+    <t>3/4-5</t>
+  </si>
+  <si>
+    <t>3/4-6</t>
+  </si>
+  <si>
+    <t>4/4-2</t>
+  </si>
+  <si>
+    <t>4/4-3</t>
+  </si>
+  <si>
+    <t>4/4-4</t>
+  </si>
+  <si>
+    <t>4/4-5</t>
   </si>
 </sst>
 </file>
@@ -379,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,13 +298,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -785,17 +681,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.77734375" style="1" customWidth="1"/>
@@ -808,19 +704,19 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -834,13 +730,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8">
         <v>19.78</v>
@@ -851,13 +747,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8">
         <v>26.73</v>
@@ -868,13 +764,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8">
         <v>35.69</v>
@@ -885,13 +781,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8">
         <v>40.56</v>
@@ -902,13 +798,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D6" s="8">
         <v>47.7</v>
@@ -919,13 +815,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D7" s="8">
         <v>17.77</v>
@@ -936,13 +832,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8">
         <v>25.13</v>
@@ -953,13 +849,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D9" s="8">
         <v>33.54</v>
@@ -970,13 +866,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8">
         <v>36.700000000000003</v>
@@ -987,13 +883,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8">
         <v>47.7</v>
@@ -1006,9 +902,7 @@
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8">
         <v>6.01</v>
       </c>
@@ -1020,9 +914,7 @@
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="8">
         <v>5.6000000000000005</v>
       </c>
@@ -1034,9 +926,7 @@
       <c r="B14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8">
         <v>22.8</v>
       </c>
@@ -1048,9 +938,7 @@
       <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="8">
         <v>34.01</v>
       </c>
@@ -1062,9 +950,7 @@
       <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="8">
         <v>7.09</v>
       </c>
@@ -1076,9 +962,7 @@
       <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="8">
         <v>11.75</v>
       </c>
@@ -1091,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8">
         <v>5.17</v>
@@ -1102,13 +986,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8">
         <v>19.59</v>
@@ -1119,13 +1003,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8">
         <v>19.59</v>
@@ -1136,13 +1020,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D21" s="8">
         <v>42.78</v>
@@ -1153,13 +1037,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D22" s="8">
         <v>42.78</v>
@@ -1174,7 +1058,7 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8">
-        <v>0.61</v>
+        <v>6.75</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>42</v>
@@ -1182,294 +1066,62 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
+        <v>9.7000000000000011</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="8">
-        <v>17.34</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8">
+        <v>15.48</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="8">
-        <v>20.11</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8">
+        <v>8.75</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="8">
-        <v>27.79</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8">
+        <v>11.93</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="8">
-        <v>32.410000000000004</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="8">
-        <v>33.07</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="8">
-        <v>37.5</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="8">
-        <v>31.28</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="8">
-        <v>9.11</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="8">
-        <v>18.18</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="8">
-        <v>22.82</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="8">
-        <v>27.67</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="8">
-        <v>31.19</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="8">
-        <v>35.56</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="8">
-        <v>9.34</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="8">
-        <v>6.75</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="8">
-        <v>9.7000000000000011</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="8">
-        <v>15.48</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="8">
-        <v>8.75</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="8">
-        <v>11.93</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8">
-        <v>4.62</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D7880A-B70A-41F7-A210-05CF833695AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41C52E-13B5-47B2-98DD-A6747186200D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>43120560</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>collecteurs/collecteur-3-rouge.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +217,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -280,6 +294,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,7 +635,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +669,9 @@
       <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -678,6 +697,9 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -695,6 +717,9 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -712,6 +737,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -729,6 +757,9 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -746,6 +777,9 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -763,6 +797,9 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -780,6 +817,9 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -797,6 +837,9 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -814,6 +857,9 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -831,6 +877,9 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -848,6 +897,9 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -865,6 +917,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -882,6 +937,9 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -898,6 +956,9 @@
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41C52E-13B5-47B2-98DD-A6747186200D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9328F92-014A-4744-9BF5-4CAEC37FFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>43120560</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -297,6 +294,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,11 +635,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -697,8 +698,8 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>51</v>
+      <c r="F2" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -717,8 +718,8 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
+      <c r="F3" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -737,8 +738,8 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>51</v>
+      <c r="F4" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -757,8 +758,8 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>51</v>
+      <c r="F5" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -777,8 +778,8 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>51</v>
+      <c r="F6" s="13">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -797,8 +798,8 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>51</v>
+      <c r="F7" s="13">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -817,8 +818,8 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>51</v>
+      <c r="F8" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -837,8 +838,8 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
+      <c r="F9" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -857,8 +858,8 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
+      <c r="F10" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -877,8 +878,8 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
+      <c r="F11" s="13">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -891,14 +892,14 @@
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>25.86</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>51</v>
+      <c r="F12" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -911,14 +912,14 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>25.86</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
+      <c r="F13" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -937,8 +938,8 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
+      <c r="F14" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -957,9 +958,24 @@
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9328F92-014A-4744-9BF5-4CAEC37FFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB62057-1F2C-456B-9ECC-5D3F07A67FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,7 +242,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -286,20 +292,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5862B2-EBB0-4D15-9659-D132FB8D0373}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -670,7 +681,7 @@
       <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="1"/>
@@ -692,13 +703,13 @@
       <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>26.11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>10</v>
       </c>
     </row>
@@ -712,14 +723,14 @@
       <c r="C3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <v>34.82</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13">
-        <v>4</v>
+      <c r="F3" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -732,13 +743,13 @@
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>47.11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>7</v>
       </c>
     </row>
@@ -752,13 +763,13 @@
       <c r="C5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>53.45</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>20</v>
       </c>
     </row>
@@ -772,13 +783,13 @@
       <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>62.97</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>17</v>
       </c>
     </row>
@@ -792,13 +803,13 @@
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="12">
         <v>23.46</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>15</v>
       </c>
     </row>
@@ -812,14 +823,14 @@
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>34.82</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13">
-        <v>3</v>
+      <c r="F8" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -832,13 +843,13 @@
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>44.27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>7</v>
       </c>
     </row>
@@ -852,13 +863,13 @@
       <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>48.44</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>12</v>
       </c>
     </row>
@@ -872,13 +883,13 @@
       <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="12">
         <v>62.97</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>4</v>
       </c>
     </row>
@@ -892,13 +903,13 @@
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="15">
         <v>25.86</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -912,13 +923,13 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="15">
         <v>25.86</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -932,13 +943,13 @@
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="15">
         <v>56.47</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -952,30 +963,30 @@
       <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="15">
         <v>56.47</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F16" s="14"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="14"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="14"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="14"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="14"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/prix/collecteur.xlsx
+++ b/prix/collecteur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB62057-1F2C-456B-9ECC-5D3F07A67FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F45168-546E-44D8-8E2C-ADA986C877A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{AC89CC73-BE36-4334-9D51-D90570969AD5}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
